--- a/data/trans_camb/P16A08-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16A08-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 2,81</t>
+          <t>-2,64; 3,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 2,27</t>
+          <t>-3,4; 1,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 2,27</t>
+          <t>-3,34; 2,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,18; 6,29</t>
+          <t>0,19; 6,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 5,12</t>
+          <t>-0,43; 5,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,31; 5,55</t>
+          <t>0,29; 5,51</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 3,35</t>
+          <t>-0,48; 3,46</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 2,49</t>
+          <t>-1,42; 2,51</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 2,91</t>
+          <t>-1,22; 2,69</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-48,95; 107,35</t>
+          <t>-47,15; 123,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-57,16; 82,43</t>
+          <t>-64,76; 72,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-64,42; 88,0</t>
+          <t>-64,98; 91,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 422,59</t>
+          <t>-9,0; 465,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-20,19; 398,17</t>
+          <t>-25,49; 391,56</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 450,75</t>
+          <t>-0,69; 417,72</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-17,99; 130,38</t>
+          <t>-12,17; 135,14</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-37,13; 95,64</t>
+          <t>-31,79; 96,43</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-26,84; 110,4</t>
+          <t>-29,98; 108,56</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,96; 6,78</t>
+          <t>1,94; 7,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,18; 5,68</t>
+          <t>1,24; 5,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,21; 5,15</t>
+          <t>1,11; 5,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 4,59</t>
+          <t>-3,82; 4,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 2,4</t>
+          <t>-5,04; 2,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 4,07</t>
+          <t>-3,36; 3,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 4,38</t>
+          <t>-0,4; 4,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 3,03</t>
+          <t>-1,24; 3,01</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 3,47</t>
+          <t>-0,83; 3,48</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>58,88; —</t>
+          <t>78,03; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,23; —</t>
+          <t>9,03; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,69; —</t>
+          <t>14,09; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-43,43; 95,96</t>
+          <t>-42,93; 89,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-56,54; 53,22</t>
+          <t>-56,5; 50,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-32,54; 92,24</t>
+          <t>-37,18; 81,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-8,74; 160,4</t>
+          <t>-9,42; 152,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-27,1; 110,15</t>
+          <t>-27,48; 107,21</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-12,71; 131,95</t>
+          <t>-17,49; 131,26</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 2,68</t>
+          <t>-1,47; 2,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 1,81</t>
+          <t>-2,19; 1,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 2,62</t>
+          <t>-3,21; 2,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,18; 6,96</t>
+          <t>-0,32; 6,51</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,98; 12,13</t>
+          <t>2,28; 11,7</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,32; 7,4</t>
+          <t>0,4; 6,99</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 3,24</t>
+          <t>-0,65; 3,26</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 3,37</t>
+          <t>-0,49; 3,35</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 3,04</t>
+          <t>-2,03; 3,07</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-45,96; 150,86</t>
+          <t>-44,39; 152,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-63,04; 120,07</t>
+          <t>-63,33; 101,41</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-79,79; 127,81</t>
+          <t>-71,88; 124,68</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-19,51; 1213,58</t>
+          <t>-22,91; 1138,45</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,83; 1646,7</t>
+          <t>25,96; 2014,57</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-11,2; 1179,14</t>
+          <t>-15,74; 1181,62</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-19,32; 195,8</t>
+          <t>-23,66; 191,04</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-17,45; 203,22</t>
+          <t>-17,62; 193,02</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-55,31; 159,52</t>
+          <t>-52,87; 159,22</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 1,37</t>
+          <t>-1,28; 1,27</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 1,19</t>
+          <t>-1,35; 1,26</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 1,84</t>
+          <t>-0,92; 2,04</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,77; 5,71</t>
+          <t>0,83; 5,53</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 4,19</t>
+          <t>-0,47; 3,97</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 1,45</t>
+          <t>-3,13; 1,4</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,05; 2,48</t>
+          <t>0,07; 2,66</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 2,1</t>
+          <t>-0,3; 2,28</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 1,35</t>
+          <t>-1,08; 1,38</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-44,77; 77,46</t>
+          <t>-42,67; 73,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-46,18; 71,2</t>
+          <t>-43,67; 71,31</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-36,45; 105,36</t>
+          <t>-33,75; 110,82</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>14,9; 179,7</t>
+          <t>13,14; 170,38</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-10,1; 128,53</t>
+          <t>-12,08; 119,01</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-59,79; 41,48</t>
+          <t>-57,63; 37,97</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,41; 97,63</t>
+          <t>0,82; 106,62</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-9,67; 86,21</t>
+          <t>-8,22; 93,63</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-33,0; 51,18</t>
+          <t>-29,58; 52,54</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 3,22</t>
+          <t>-0,77; 3,39</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 3,44</t>
+          <t>-0,4; 3,61</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,13; 4,58</t>
+          <t>0,02; 4,7</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 2,83</t>
+          <t>-1,52; 2,74</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 3,85</t>
+          <t>-0,41; 4,16</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 30,36</t>
+          <t>-0,06; 32,51</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 2,28</t>
+          <t>-0,83; 2,34</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 3,23</t>
+          <t>-0,03; 3,04</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,52; 26,82</t>
+          <t>0,61; 23,68</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-42,46; 353,7</t>
+          <t>-36,6; 466,94</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-21,54; 451,34</t>
+          <t>-27,6; 450,12</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 504,25</t>
+          <t>-13,16; 530,2</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-35,05; 133,62</t>
+          <t>-33,11; 127,01</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-11,93; 174,89</t>
+          <t>-11,11; 177,59</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-9,58; 1302,09</t>
+          <t>-2,69; 1396,35</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-20,5; 123,26</t>
+          <t>-21,0; 121,22</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 170,55</t>
+          <t>-2,87; 155,91</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>17,33; 1123,31</t>
+          <t>20,41; 981,4</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,48; 7,39</t>
+          <t>0,41; 7,19</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 5,77</t>
+          <t>-0,66; 5,55</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 7,96</t>
+          <t>-1,67; 8,34</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 3,13</t>
+          <t>-0,46; 3,0</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 2,88</t>
+          <t>-0,72; 2,75</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 1,58</t>
+          <t>-1,58; 1,78</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,19; 3,17</t>
+          <t>0,17; 3,22</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 2,64</t>
+          <t>-0,04; 2,74</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 2,17</t>
+          <t>-1,23; 2,29</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>3,01; 539,11</t>
+          <t>3,79; 649,88</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-21,35; 389,48</t>
+          <t>-25,73; 458,66</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-66,91; 578,34</t>
+          <t>-67,7; 633,93</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-12,51; 100,55</t>
+          <t>-10,52; 95,9</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-17,43; 94,25</t>
+          <t>-17,86; 84,26</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-39,07; 50,14</t>
+          <t>-35,97; 60,31</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>3,83; 112,2</t>
+          <t>3,31; 112,16</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-7,45; 94,01</t>
+          <t>-1,77; 93,91</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-30,45; 78,62</t>
+          <t>-31,37; 76,43</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,1; 1,92</t>
+          <t>0,18; 1,94</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 1,5</t>
+          <t>-0,11; 1,52</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 1,83</t>
+          <t>-0,16; 1,76</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,67; 2,7</t>
+          <t>0,58; 2,72</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,43; 2,55</t>
+          <t>0,34; 2,44</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,12; 8,54</t>
+          <t>0,12; 8,95</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,67; 1,98</t>
+          <t>0,62; 1,91</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>0,44; 1,71</t>
+          <t>0,4; 1,68</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0,44; 6,34</t>
+          <t>0,41; 6,5</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>2,87; 92,75</t>
+          <t>5,82; 94,99</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 76,83</t>
+          <t>-3,73; 74,68</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-7,71; 90,78</t>
+          <t>-5,45; 85,89</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>14,09; 78,46</t>
+          <t>13,11; 78,07</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>11,34; 74,67</t>
+          <t>7,3; 69,81</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>2,77; 221,21</t>
+          <t>2,58; 231,23</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>19,33; 69,22</t>
+          <t>17,31; 67,58</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>13,15; 59,19</t>
+          <t>11,46; 57,85</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>12,44; 207,49</t>
+          <t>11,95; 191,1</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A08-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16A08-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
